--- a/lme/demo.xlsx
+++ b/lme/demo.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Zinco</t>
+    <t>zinco</t>
   </si>
   <si>
     <t>cobre</t>
@@ -40,7 +40,79 @@
     <t>dolar</t>
   </si>
   <si>
-    <t>ex</t>
+    <t>15/07/2022</t>
+  </si>
+  <si>
+    <t>18/07/2022</t>
+  </si>
+  <si>
+    <t>19/07/2022</t>
+  </si>
+  <si>
+    <t>20/07/2022</t>
+  </si>
+  <si>
+    <t>21/07/2022</t>
+  </si>
+  <si>
+    <t>22/07/2022</t>
+  </si>
+  <si>
+    <t>25/07/2022</t>
+  </si>
+  <si>
+    <t>26/07/2022</t>
+  </si>
+  <si>
+    <t>27/07/2022</t>
+  </si>
+  <si>
+    <t>28/07/2022</t>
+  </si>
+  <si>
+    <t>29/07/2022</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>02/08/2022</t>
+  </si>
+  <si>
+    <t>03/08/2022</t>
+  </si>
+  <si>
+    <t>04/08/2022</t>
+  </si>
+  <si>
+    <t>05/08/2022</t>
+  </si>
+  <si>
+    <t>08/08/2022</t>
+  </si>
+  <si>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t>10/08/2022</t>
+  </si>
+  <si>
+    <t>11/08/2022</t>
+  </si>
+  <si>
+    <t>12/08/2022</t>
+  </si>
+  <si>
+    <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>16/08/2022</t>
+  </si>
+  <si>
+    <t>17/08/2022</t>
+  </si>
+  <si>
+    <t>18/08/2022</t>
   </si>
   <si>
     <t>3574.00</t>
@@ -419,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,25 +528,649 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
